--- a/uncertainty_models/UMCRF_I1.xlsx
+++ b/uncertainty_models/UMCRF_I1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\UM_I1_I2_plateforme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7D9733-5D0A-4350-8B41-4C9BD0ED1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F61C4-DCDA-4186-A5D3-09047E0F2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,28 +766,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="R2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="S2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="T2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="U2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="V2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="W2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="X2" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -810,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P3" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="Q3" s="4">
         <v>-0.1</v>
@@ -884,34 +884,34 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="4">
         <v>0.1</v>
@@ -987,29 +987,29 @@
       <c r="P5" s="15">
         <v>0.8</v>
       </c>
-      <c r="Q5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0.5</v>
+      <c r="Q5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1210,28 +1210,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="R8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="S8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="T8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="U8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="V8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="W8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="X8" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1254,34 +1254,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P9" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="Q9" s="4">
         <v>-0.1</v>
@@ -1328,34 +1328,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P10" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="4">
         <v>0.1</v>
@@ -1431,29 +1431,29 @@
       <c r="P11" s="15">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="15">
-        <v>0.5</v>
+      <c r="Q11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1654,28 +1654,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="R14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="S14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="T14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="U14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="V14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="W14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="X14" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1698,34 +1698,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P15" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="Q15" s="4">
         <v>-0.1</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P16" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" s="4">
         <v>0.1</v>
@@ -1875,29 +1875,29 @@
       <c r="P17" s="15">
         <v>0.8</v>
       </c>
-      <c r="Q17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="W17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="X17" s="15">
-        <v>0.5</v>
+      <c r="Q17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -2098,28 +2098,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="R20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="S20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="T20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="U20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="V20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="W20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="X20" s="6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,34 +2142,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P21" s="4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="Q21" s="4">
         <v>-0.1</v>
@@ -2216,34 +2216,34 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P22" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q22" s="4">
         <v>0.1</v>
@@ -2319,29 +2319,29 @@
       <c r="P23" s="15">
         <v>0.8</v>
       </c>
-      <c r="Q23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="R23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="T23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="V23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="W23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="X23" s="15">
-        <v>0.5</v>
+      <c r="Q23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">

--- a/uncertainty_models/UMCRF_I1.xlsx
+++ b/uncertainty_models/UMCRF_I1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624F61C4-DCDA-4186-A5D3-09047E0F2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6594ECF6-1FBC-4270-99B5-7A0392ED267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,28 +766,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="R2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="S2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="T2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="V2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="X2" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -810,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="H3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="K3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="M3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P3" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3" s="4">
         <v>-0.1</v>
@@ -884,34 +884,34 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="4">
         <v>0.1</v>
@@ -988,28 +988,28 @@
         <v>0.8</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1210,28 +1210,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="R8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="S8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="T8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="V8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="X8" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1254,34 +1254,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="K9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="M9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P9" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q9" s="4">
         <v>-0.1</v>
@@ -1328,34 +1328,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="4">
         <v>0.1</v>
@@ -1432,28 +1432,28 @@
         <v>0.8</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X11" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1654,28 +1654,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="R14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="S14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="T14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="V14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="X14" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -1698,34 +1698,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="K15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="L15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="M15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P15" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q15" s="4">
         <v>-0.1</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P16" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="4">
         <v>0.1</v>
@@ -1876,28 +1876,28 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X17" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -2098,28 +2098,28 @@
         <v>-0.8</v>
       </c>
       <c r="Q20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="R20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="S20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="T20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="U20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="V20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="W20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="X20" s="6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,34 +2142,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="H21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="I21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="J21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="K21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="M21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="P21" s="4">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q21" s="4">
         <v>-0.1</v>
@@ -2216,34 +2216,34 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P22" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" s="4">
         <v>0.1</v>
@@ -2320,28 +2320,28 @@
         <v>0.8</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="W23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">

--- a/uncertainty_models/UMCRF_I1.xlsx
+++ b/uncertainty_models/UMCRF_I1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6594ECF6-1FBC-4270-99B5-7A0392ED267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DB7CF-CE93-411E-9CE7-1BF8C82AFD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,34 +736,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="L2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="M2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="N2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="O2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="P2" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="Q2" s="6">
         <v>-0.5</v>
@@ -810,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="H3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="K3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="M3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="O3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="P3" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="Q3" s="4">
         <v>-0.1</v>
@@ -884,34 +884,34 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q4" s="4">
         <v>0.1</v>
@@ -958,57 +958,57 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="15">
         <v>0.5</v>
       </c>
     </row>
@@ -1180,34 +1180,34 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="I8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="J8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="L8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="M8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="N8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="O8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="P8" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="Q8" s="6">
         <v>-0.5</v>
@@ -1254,34 +1254,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="I9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="J9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="K9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="M9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="O9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="P9" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="Q9" s="4">
         <v>-0.1</v>
@@ -1328,34 +1328,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P10" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" s="4">
         <v>0.1</v>
@@ -1402,57 +1402,57 @@
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O11" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P11" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="15">
         <v>0.5</v>
       </c>
     </row>
@@ -1624,34 +1624,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="I14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="J14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="L14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="M14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="N14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="O14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="P14" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="Q14" s="6">
         <v>-0.5</v>
@@ -1698,34 +1698,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="I15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="J15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="K15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="L15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="M15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="O15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="P15" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="Q15" s="4">
         <v>-0.1</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P16" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="4">
         <v>0.1</v>
@@ -1846,57 +1846,57 @@
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O17" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P17" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="15">
         <v>0.5</v>
       </c>
     </row>
@@ -2068,34 +2068,34 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="I20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="J20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="K20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="L20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="M20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="N20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="O20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="P20" s="6">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="Q20" s="6">
         <v>-0.5</v>
@@ -2142,34 +2142,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="H21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="I21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="J21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="K21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="M21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="O21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="P21" s="4">
-        <v>-0.5</v>
+        <v>-0.05</v>
       </c>
       <c r="Q21" s="4">
         <v>-0.1</v>
@@ -2216,34 +2216,34 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="I22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="J22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="K22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="L22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="N22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="O22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="P22" s="4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" s="4">
         <v>0.1</v>
@@ -2290,57 +2290,57 @@
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="15">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="P23" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="W23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="15">
         <v>0.5</v>
       </c>
     </row>

--- a/uncertainty_models/UMCRF_I1.xlsx
+++ b/uncertainty_models/UMCRF_I1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DB7CF-CE93-411E-9CE7-1BF8C82AFD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CDA67-7645-4D08-A3E6-6CF487D616C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,34 +736,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="K2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="L2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="M2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="N2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="P2" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q2" s="6">
         <v>-0.5</v>
@@ -810,34 +810,34 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="H3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="J3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="K3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="M3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="N3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="O3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="P3" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3" s="4">
         <v>-0.1</v>
@@ -884,34 +884,34 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="4">
         <v>0.1</v>
@@ -958,34 +958,34 @@
         <v>0</v>
       </c>
       <c r="G5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="P5" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q5" s="15">
         <v>0.5</v>
@@ -1180,34 +1180,34 @@
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="H8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="I8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="J8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="K8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="L8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="M8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="N8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="P8" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q8" s="6">
         <v>-0.5</v>
@@ -1254,34 +1254,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="K9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="M9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="N9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="O9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="P9" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Q9" s="4">
         <v>-0.1</v>
@@ -1328,34 +1328,34 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="4">
         <v>0.1</v>
@@ -1402,34 +1402,34 @@
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="P11" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" s="15">
         <v>0.5</v>
@@ -1624,34 +1624,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="H14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="I14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="J14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="K14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="L14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="M14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="N14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="P14" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q14" s="6">
         <v>-0.5</v>
@@ -1698,34 +1698,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="I15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="J15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="K15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="L15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="M15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="N15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="O15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="P15" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Q15" s="4">
         <v>-0.1</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P16" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="4">
         <v>0.1</v>
@@ -1846,34 +1846,34 @@
         <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="P17" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q17" s="15">
         <v>0.5</v>
@@ -2068,34 +2068,34 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="H20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="I20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="J20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="K20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="L20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="M20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="N20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="P20" s="6">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="Q20" s="6">
         <v>-0.5</v>
@@ -2142,34 +2142,34 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="H21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="I21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="J21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="K21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="M21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="N21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="O21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="P21" s="4">
-        <v>-0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Q21" s="4">
         <v>-0.1</v>
@@ -2216,34 +2216,34 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P22" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" s="4">
         <v>0.1</v>
@@ -2290,34 +2290,34 @@
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="N23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="P23" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="Q23" s="15">
         <v>0.5</v>

--- a/uncertainty_models/UMCRF_I1.xlsx
+++ b/uncertainty_models/UMCRF_I1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CDA67-7645-4D08-A3E6-6CF487D616C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1023E-237C-489B-9BE6-78CCBEBDC911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -90,58 +90,58 @@
     <t>ModelType</t>
   </si>
   <si>
+    <t>RefWeek</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
     <t>I1</t>
-  </si>
-  <si>
-    <t>RefWeek</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>W8</t>
-  </si>
-  <si>
-    <t>W9</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>W11</t>
-  </si>
-  <si>
-    <t>W12</t>
-  </si>
-  <si>
-    <t>W13</t>
-  </si>
-  <si>
-    <t>W14</t>
-  </si>
-  <si>
-    <t>W15</t>
-  </si>
-  <si>
-    <t>W16</t>
-  </si>
-  <si>
-    <t>W17</t>
-  </si>
-  <si>
-    <t>W18</t>
-  </si>
-  <si>
-    <t>W19</t>
-  </si>
-  <si>
-    <t>W20</t>
   </si>
 </sst>
 </file>
@@ -309,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -340,12 +340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,43 +671,43 @@
         <v>16</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="Q1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -948,7 +942,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4">
@@ -1013,7 +1007,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1026,68 +1020,68 @@
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1097,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>10</v>
@@ -1135,34 +1129,34 @@
       <c r="P7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>28</v>
+      <c r="Q7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>20</v>
+      <c r="A8" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1235,8 +1229,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>20</v>
+      <c r="A9" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1309,8 +1303,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
+      <c r="A10" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -1383,8 +1377,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
+      <c r="A11" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1392,7 +1386,7 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4">
@@ -1457,8 +1451,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>20</v>
+      <c r="A12" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -1470,69 +1464,69 @@
         <v>17</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>20</v>
+      <c r="A13" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -1541,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>10</v>
@@ -1579,34 +1573,34 @@
       <c r="P13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>28</v>
+      <c r="Q13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>21</v>
+      <c r="A14" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -1679,8 +1673,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>21</v>
+      <c r="A15" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -1753,8 +1747,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>21</v>
+      <c r="A16" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -1827,8 +1821,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>21</v>
+      <c r="A17" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -1836,7 +1830,7 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="4">
@@ -1901,8 +1895,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>21</v>
+      <c r="A18" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -1914,69 +1908,69 @@
         <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>21</v>
+      <c r="A19" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -1985,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>10</v>
@@ -2023,34 +2017,34 @@
       <c r="P19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>28</v>
+      <c r="Q19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>22</v>
+      <c r="A20" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -2123,8 +2117,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>22</v>
+      <c r="A21" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -2197,8 +2191,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>22</v>
+      <c r="A22" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -2271,8 +2265,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>22</v>
+      <c r="A23" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -2280,7 +2274,7 @@
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="4">
@@ -2345,8 +2339,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>22</v>
+      <c r="A24" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -2358,69 +2352,69 @@
         <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>22</v>
+      <c r="A25" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -2429,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>10</v>
@@ -2467,29 +2461,29 @@
       <c r="P25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>28</v>
+      <c r="Q25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
